--- a/biology/Biologie cellulaire et moléculaire/RNase_PH/RNase_PH.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/RNase_PH/RNase_PH.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La ribonucléase PH, également appelées RNase PH, exonucléase phosphate-dépendante et officiellement ARNt nucléotidyltransférase, est une 3'-5' exoribonucléase nucléotidyltransférase présente chez les archées et les bactéries et qui intervient dans la dégradation des ARN de transfert.
 À la différence des enzymes hydrolytiques qui ont besoin d'une molécule d'eau comme cofacteur pour lar réaction, elle utilise un phosphate inorganique (phosphorylase) pour séparer dans la chaine de nucléotides, le nucléotide de l'extrémité 3'. 
